--- a/data/validation+testing/tissue_block_fit.xlsx
+++ b/data/validation+testing/tissue_block_fit.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abueckle\Documents\GitHub\hra-cell-type-populations-supporting-information\data\validation+testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5CA9D90-41B3-403B-8556-9E75CA3D0516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1274D2-9B6B-4FA5-95FA-D7924B68287A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tissue_block_fit" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -631,7 +644,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1168,7 +1181,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1176,76 +1189,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1568,11 +1511,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="E132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F168" sqref="F168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22993,10 +22936,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F160">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23011,10 +22954,10 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="C15" r:id="rId2"/>
-    <hyperlink ref="D15" r:id="rId3"/>
-    <hyperlink ref="D18" r:id="rId4"/>
+    <hyperlink ref="B15" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D15" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D18" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
